--- a/springboot_0321/src/main/resources/static/import.xlsx
+++ b/springboot_0321/src/main/resources/static/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zengzl/Desktop/springboot_0321/src/main/resources/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F78794-427D-334B-ABC1-934DD96A08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA255E3D-251F-E64E-89AA-89DC1EB8B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="4100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -111,7 +114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +122,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +444,14 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D11" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -467,97 +477,97 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -566,7 +576,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -575,7 +585,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -584,7 +594,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -593,7 +603,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -602,7 +612,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -611,7 +621,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -620,7 +630,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
